--- a/ESPN sports website/IPL/Royal Challengers Bangalore/Faf du Plessis (c).xlsx
+++ b/ESPN sports website/IPL/Royal Challengers Bangalore/Faf du Plessis (c).xlsx
@@ -445,31 +445,31 @@
         <v>Faf du Plessis (c)</v>
       </c>
       <c r="C2" t="str">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D2" t="str">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>66.66</v>
+        <v>0.00</v>
       </c>
       <c r="H2" t="str">
-        <v>Mumbai Indians</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I2" t="str">
-        <v>Pune</v>
+        <v>Kolkata</v>
       </c>
       <c r="J2" t="str">
-        <v>April 09, 2022</v>
+        <v>May 25, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>RCB won by 7 wickets (with 9 balls remaining)</v>
+        <v>RCB won by 14 runs</v>
       </c>
     </row>
     <row r="3">
@@ -480,31 +480,31 @@
         <v>Faf du Plessis (c)</v>
       </c>
       <c r="C3" t="str">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="str">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>88.88</v>
+        <v>71.42</v>
       </c>
       <c r="H3" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I3" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J3" t="str">
-        <v>April 12, 2022</v>
+        <v>April 23, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Super Kings won by 23 runs</v>
+        <v>Sunrisers won by 9 wickets (with 72 balls remaining)</v>
       </c>
     </row>
     <row r="4">
@@ -515,10 +515,10 @@
         <v>Faf du Plessis (c)</v>
       </c>
       <c r="C4" t="str">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D4" t="str">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E4" t="str">
         <v>5</v>
@@ -527,19 +527,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>145.00</v>
+        <v>115.78</v>
       </c>
       <c r="H4" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I4" t="str">
         <v>Wankhede</v>
       </c>
       <c r="J4" t="str">
-        <v>April 05, 2022</v>
+        <v>May 19, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>RCB won by 4 wickets (with 5 balls remaining)</v>
+        <v>RCB won by 8 wickets (with 8 balls remaining)</v>
       </c>
     </row>
     <row r="5">
@@ -550,31 +550,31 @@
         <v>Faf du Plessis (c)</v>
       </c>
       <c r="C5" t="str">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D5" t="str">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E5" t="str">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F5" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>150.00</v>
+        <v>145.00</v>
       </c>
       <c r="H5" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I5" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J5" t="str">
-        <v>April 19, 2022</v>
+        <v>April 05, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>RCB won by 18 runs</v>
+        <v>RCB won by 4 wickets (with 5 balls remaining)</v>
       </c>
     </row>
     <row r="6">
@@ -585,31 +585,31 @@
         <v>Faf du Plessis (c)</v>
       </c>
       <c r="C6" t="str">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="D6" t="str">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E6" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="str">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G6" t="str">
-        <v>154.38</v>
+        <v>66.66</v>
       </c>
       <c r="H6" t="str">
-        <v>Punjab Kings</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I6" t="str">
-        <v>DY Patil</v>
+        <v>Pune</v>
       </c>
       <c r="J6" t="str">
-        <v>March 27, 2022</v>
+        <v>April 09, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Punjab Kings won by 5 wickets (with 6 balls remaining)</v>
+        <v>RCB won by 7 wickets (with 9 balls remaining)</v>
       </c>
     </row>
     <row r="7">
@@ -655,31 +655,31 @@
         <v>Faf du Plessis (c)</v>
       </c>
       <c r="C8" t="str">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="D8" t="str">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E8" t="str">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F8" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="str">
-        <v>172.72</v>
+        <v>150.00</v>
       </c>
       <c r="H8" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I8" t="str">
-        <v>Pune</v>
+        <v>DY Patil</v>
       </c>
       <c r="J8" t="str">
-        <v>May 04, 2022</v>
+        <v>April 19, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>RCB won by 13 runs</v>
+        <v>RCB won by 18 runs</v>
       </c>
     </row>
     <row r="9">
@@ -690,31 +690,31 @@
         <v>Faf du Plessis (c)</v>
       </c>
       <c r="C9" t="str">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D9" t="str">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E9" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F9" t="str">
         <v>0</v>
       </c>
       <c r="G9" t="str">
-        <v>115.78</v>
+        <v>0.00</v>
       </c>
       <c r="H9" t="str">
         <v>Gujarat Titans</v>
       </c>
       <c r="I9" t="str">
-        <v>Wankhede</v>
+        <v>Brabourne</v>
       </c>
       <c r="J9" t="str">
-        <v>May 19, 2022</v>
+        <v>April 30, 2022</v>
       </c>
       <c r="K9" t="str">
-        <v>RCB won by 8 wickets (with 8 balls remaining)</v>
+        <v>Titans won by 6 wickets (with 3 balls remaining)</v>
       </c>
     </row>
     <row r="10">
@@ -725,31 +725,31 @@
         <v>Faf du Plessis (c)</v>
       </c>
       <c r="C10" t="str">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D10" t="str">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E10" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="str">
         <v>0</v>
       </c>
       <c r="G10" t="str">
-        <v>92.59</v>
+        <v>88.88</v>
       </c>
       <c r="H10" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I10" t="str">
-        <v>Ahmedabad</v>
+        <v>DY Patil</v>
       </c>
       <c r="J10" t="str">
-        <v>May 27, 2022</v>
+        <v>April 12, 2022</v>
       </c>
       <c r="K10" t="str">
-        <v>Royals won by 7 wickets (with 11 balls remaining)</v>
+        <v>Super Kings won by 23 runs</v>
       </c>
     </row>
     <row r="11">
@@ -760,31 +760,31 @@
         <v>Faf du Plessis (c)</v>
       </c>
       <c r="C11" t="str">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D11" t="str">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="E11" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="str">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G11" t="str">
-        <v>125.00</v>
+        <v>154.38</v>
       </c>
       <c r="H11" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I11" t="str">
         <v>DY Patil</v>
       </c>
       <c r="J11" t="str">
-        <v>March 30, 2022</v>
+        <v>March 27, 2022</v>
       </c>
       <c r="K11" t="str">
-        <v>RCB won by 3 wickets (with 4 balls remaining)</v>
+        <v>Punjab Kings won by 5 wickets (with 6 balls remaining)</v>
       </c>
     </row>
     <row r="12">
@@ -795,31 +795,31 @@
         <v>Faf du Plessis (c)</v>
       </c>
       <c r="C12" t="str">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="D12" t="str">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E12" t="str">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F12" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="str">
-        <v>146.00</v>
+        <v>125.00</v>
       </c>
       <c r="H12" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I12" t="str">
-        <v>Wankhede</v>
+        <v>Brabourne</v>
       </c>
       <c r="J12" t="str">
-        <v>May 08, 2022</v>
+        <v>May 13, 2022</v>
       </c>
       <c r="K12" t="str">
-        <v>RCB won by 67 runs</v>
+        <v>Punjab Kings won by 54 runs</v>
       </c>
     </row>
     <row r="13">
@@ -830,31 +830,31 @@
         <v>Faf du Plessis (c)</v>
       </c>
       <c r="C13" t="str">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D13" t="str">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E13" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="str">
         <v>0</v>
       </c>
       <c r="G13" t="str">
-        <v>125.00</v>
+        <v>92.59</v>
       </c>
       <c r="H13" t="str">
-        <v>Punjab Kings</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I13" t="str">
-        <v>Brabourne</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J13" t="str">
-        <v>May 13, 2022</v>
+        <v>May 27, 2022</v>
       </c>
       <c r="K13" t="str">
-        <v>Punjab Kings won by 54 runs</v>
+        <v>Royals won by 7 wickets (with 11 balls remaining)</v>
       </c>
     </row>
     <row r="14">
@@ -865,31 +865,31 @@
         <v>Faf du Plessis (c)</v>
       </c>
       <c r="C14" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" t="str">
+        <v>4</v>
+      </c>
+      <c r="E14" t="str">
         <v>1</v>
       </c>
-      <c r="E14" t="str">
-        <v>0</v>
-      </c>
       <c r="F14" t="str">
         <v>0</v>
       </c>
       <c r="G14" t="str">
-        <v>0.00</v>
+        <v>125.00</v>
       </c>
       <c r="H14" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I14" t="str">
-        <v>Kolkata</v>
+        <v>DY Patil</v>
       </c>
       <c r="J14" t="str">
-        <v>May 25, 2022</v>
+        <v>March 30, 2022</v>
       </c>
       <c r="K14" t="str">
-        <v>RCB won by 14 runs</v>
+        <v>RCB won by 3 wickets (with 4 balls remaining)</v>
       </c>
     </row>
     <row r="15">
@@ -900,31 +900,31 @@
         <v>Faf du Plessis (c)</v>
       </c>
       <c r="C15" t="str">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D15" t="str">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E15" t="str">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F15" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="str">
-        <v>71.42</v>
+        <v>146.00</v>
       </c>
       <c r="H15" t="str">
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I15" t="str">
-        <v>Brabourne</v>
+        <v>Wankhede</v>
       </c>
       <c r="J15" t="str">
-        <v>April 23, 2022</v>
+        <v>May 08, 2022</v>
       </c>
       <c r="K15" t="str">
-        <v>Sunrisers won by 9 wickets (with 72 balls remaining)</v>
+        <v>RCB won by 67 runs</v>
       </c>
     </row>
     <row r="16">
@@ -935,31 +935,31 @@
         <v>Faf du Plessis (c)</v>
       </c>
       <c r="C16" t="str">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D16" t="str">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E16" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="str">
-        <v>0.00</v>
+        <v>109.52</v>
       </c>
       <c r="H16" t="str">
-        <v>Gujarat Titans</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I16" t="str">
-        <v>Brabourne</v>
+        <v>Pune</v>
       </c>
       <c r="J16" t="str">
-        <v>April 30, 2022</v>
+        <v>April 26, 2022</v>
       </c>
       <c r="K16" t="str">
-        <v>Titans won by 6 wickets (with 3 balls remaining)</v>
+        <v>Royals won by 29 runs</v>
       </c>
     </row>
     <row r="17">
@@ -970,31 +970,31 @@
         <v>Faf du Plessis (c)</v>
       </c>
       <c r="C17" t="str">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D17" t="str">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" t="str">
         <v>1</v>
       </c>
       <c r="G17" t="str">
-        <v>109.52</v>
+        <v>172.72</v>
       </c>
       <c r="H17" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I17" t="str">
         <v>Pune</v>
       </c>
       <c r="J17" t="str">
-        <v>April 26, 2022</v>
+        <v>May 04, 2022</v>
       </c>
       <c r="K17" t="str">
-        <v>Royals won by 29 runs</v>
+        <v>RCB won by 13 runs</v>
       </c>
     </row>
   </sheetData>
